--- a/estrategia.xlsx
+++ b/estrategia.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\Repositories\maratones\MARATONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54518D36-5D6A-459D-9C44-CCAD97BDCF3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B671375-D921-4003-A5A5-45F54B5B2963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Geometria</t>
   </si>
@@ -187,12 +186,15 @@
   </si>
   <si>
     <t>adhoc</t>
+  </si>
+  <si>
+    <t>math+geometry+combinatoric problems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,6 +513,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -518,7 +521,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1435,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33F7810-B8B5-4C7D-947F-D0AE462CAC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1785,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
       <c r="O33" t="s">
         <v>36</v>
       </c>
@@ -1791,12 +1796,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
       <c r="P34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P35" t="s">
         <v>41</v>
       </c>
